--- a/xlsx/伊利湖_intext.xlsx
+++ b/xlsx/伊利湖_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>伊利湖</t>
   </si>
@@ -29,7 +29,7 @@
     <t>五大湖</t>
   </si>
   <si>
-    <t>政策_政策_美國_伊利湖</t>
+    <t>政策_政策_美国_伊利湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B0%B4%E5%81%9C%E7%95%99%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>湖水停留時間</t>
+    <t>湖水停留时间</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lake_Erie_Islands</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9_(%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伊利 (賓夕法尼亞州)</t>
+    <t>伊利 (宾夕法尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E8%8E%B1%E5%A4%9A_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里夫蘭 (俄亥俄州)</t>
+    <t>克里夫兰 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E4%BC%A6%E6%B9%96</t>
@@ -173,9 +173,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%80%AB%E6%B9%96</t>
   </si>
   <si>
-    <t>休倫湖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E6%B9%96</t>
   </si>
   <si>
@@ -197,31 +194,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E8%90%8A%E7%88%BE%E6%B9%96_(%E5%8C%97%E7%BE%8E%E6%B4%B2)</t>
   </si>
   <si>
-    <t>聖克萊爾湖 (北美洲)</t>
+    <t>圣克莱尔湖 (北美洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%A7%86%E7%A7%91%E6%B9%96</t>
   </si>
   <si>
-    <t>錫姆科湖</t>
+    <t>锡姆科湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E7%B4%8D%E8%B2%9D%E6%88%88%E6%B9%96</t>
   </si>
   <si>
-    <t>溫納貝戈湖</t>
+    <t>温纳贝戈湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>伊利運河</t>
+    <t>伊利运河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>喬治亞灣</t>
+    <t>乔治亚湾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lake_George_(Michigan%E2%80%93Ontario)</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E6%B5%B7%E9%81%93</t>
   </si>
   <si>
-    <t>聖羅倫斯海道</t>
+    <t>圣罗伦斯海道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%9F%BA%E8%AF%BA%E6%B0%B4%E9%81%93</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%98%AD%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>威蘭運河</t>
+    <t>威兰运河</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lake_Chicago</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B9%96%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>大湖效應</t>
+    <t>大湖效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96%E5%8C%BA%E5%9F%8E%E5%B8%82%E7%BE%A4</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1449,7 +1446,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1475,10 +1472,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1504,10 +1501,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1533,10 +1530,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1562,10 +1559,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1591,10 +1588,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1620,10 +1617,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1649,10 +1646,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1678,10 +1675,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1707,10 +1704,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1736,10 +1733,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1765,10 +1762,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1794,10 +1791,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1823,10 +1820,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1852,10 +1849,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1881,10 +1878,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1910,10 +1907,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1939,10 +1936,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1968,10 +1965,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1997,10 +1994,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2026,10 +2023,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2055,10 +2052,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2084,10 +2081,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2113,10 +2110,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2142,10 +2139,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2171,10 +2168,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2200,10 +2197,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2229,10 +2226,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2258,10 +2255,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -2287,10 +2284,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2316,10 +2313,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
